--- a/api/v1/lib/Oxzion/test/ParserTest/Data/FieldValidation.xlsx
+++ b/api/v1/lib/Oxzion/test/ParserTest/Data/FieldValidation.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
   <si>
     <t>Field Name</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>Proficiency is Required</t>
+  </si>
+  <si>
+    <t>Decimal Places</t>
   </si>
 </sst>
 </file>
@@ -431,8 +434,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P1048576" totalsRowShown="0">
-  <autoFilter ref="A1:P1048576">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q1048576" totalsRowShown="0">
+  <autoFilter ref="A1:Q1048576">
     <filterColumn colId="2"/>
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
@@ -440,8 +443,9 @@
     <filterColumn colId="11"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
+    <filterColumn colId="14"/>
   </autoFilter>
-  <tableColumns count="16">
+  <tableColumns count="17">
     <tableColumn id="1" name="Field Name"/>
     <tableColumn id="2" name="Field Label"/>
     <tableColumn id="10" name="Parent Field Name"/>
@@ -454,6 +458,7 @@
     <tableColumn id="6" name="Required?"/>
     <tableColumn id="15" name="Min "/>
     <tableColumn id="14" name="Max "/>
+    <tableColumn id="11" name="Decimal Places"/>
     <tableColumn id="16" name="Regex Pattern"/>
     <tableColumn id="17" name="Format"/>
     <tableColumn id="7" name="Error Message"/>
@@ -748,11 +753,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -765,13 +770,13 @@
     <col min="7" max="7" width="21.140625" customWidth="1"/>
     <col min="8" max="8" width="28.28515625" customWidth="1"/>
     <col min="9" max="9" width="30.42578125" customWidth="1"/>
-    <col min="10" max="14" width="12.140625" customWidth="1"/>
-    <col min="15" max="15" width="28.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" customWidth="1"/>
-    <col min="32" max="33" width="9.140625" customWidth="1"/>
+    <col min="10" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="28.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" customWidth="1"/>
+    <col min="33" max="34" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -809,19 +814,22 @@
         <v>34</v>
       </c>
       <c r="M1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>37</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -846,11 +854,11 @@
       <c r="L2">
         <v>25</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -875,11 +883,11 @@
       <c r="L3">
         <v>25</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -898,11 +906,11 @@
       <c r="J4" t="s">
         <v>40</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -922,7 +930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -941,11 +949,11 @@
       <c r="J6" t="s">
         <v>40</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -964,11 +972,11 @@
       <c r="J7" t="s">
         <v>40</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -990,14 +998,14 @@
       <c r="L8">
         <v>15</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>66</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -1016,14 +1024,14 @@
       <c r="J9" t="s">
         <v>40</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>67</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -1045,11 +1053,11 @@
       <c r="L10" t="s">
         <v>68</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -1069,7 +1077,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -1094,11 +1102,11 @@
       <c r="J12" t="s">
         <v>40</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="F13" t="s">
         <v>75</v>
       </c>
@@ -1106,7 +1114,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="F14" t="s">
         <v>77</v>
       </c>
@@ -1114,7 +1122,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="F15" t="s">
         <v>79</v>
       </c>
@@ -1122,7 +1130,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -1139,7 +1147,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -1161,11 +1169,11 @@
       <c r="J17" t="s">
         <v>40</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -1187,11 +1195,11 @@
       <c r="J18" t="s">
         <v>40</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -1219,11 +1227,11 @@
       <c r="J19" t="s">
         <v>40</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="F20" t="s">
         <v>92</v>
       </c>

--- a/api/v1/lib/Oxzion/test/ParserTest/Data/FieldValidation.xlsx
+++ b/api/v1/lib/Oxzion/test/ParserTest/Data/FieldValidation.xlsx
@@ -26,7 +26,7 @@
     <definedName name="select">Sheet2!$D$4:$D$5</definedName>
     <definedName name="selectboxes">Sheet2!$D$5</definedName>
     <definedName name="survey">Sheet2!$D$8</definedName>
-    <definedName name="textarea">Sheet2!$D$4</definedName>
+    <definedName name="textarea">Sheet2!$D$9</definedName>
     <definedName name="textfield">Sheet2!$D$4</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="96">
   <si>
     <t>Field Name</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>Decimal Places</t>
+  </si>
+  <si>
+    <t>longtext</t>
   </si>
 </sst>
 </file>
@@ -757,7 +760,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1268,13 +1271,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
@@ -1344,6 +1345,9 @@
     <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:4">
